--- a/main/results/jdk_4.xlsx
+++ b/main/results/jdk_4.xlsx
@@ -469,7 +469,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>The applicant possesses strong technical skills in ReactJS, Django, Python, JavaScript, Computer Vision, Image Processing, and PyTorch which are crucial for building user-friendly UI, backend systems, and implementing data analysis and machine learning algorithms. However, the applicant lacks experience with Flutter, Dart, Android/iOS development, Firestore, Firebase Authentication, cloud storage, messaging, and mobile app architecture, which are essential for the specific role of front-end coding and mobile app development under a Scrum Master. The applicant's projects demonstrate proficiency in developing user-friendly interfaces, managing data, and implementing computer vision algorithms, showcasing adaptability and problem-solving skills. Overall, the applicant's strong technical foundation and problem-solving abilities make them a suitable candidate, albeit with a need for additional training in mobile app development technologies.</t>
+          <t>The applicant has strong skills in Python, Django, ReactJS, and JavaScript, showcasing proficiency in web development and backend technologies. However, there is a lack of experience in specific technologies such as Flutter, Dart, Firestore, Firebase Authentication, and mobile app architecture/design, which are crucial for the job role. Additionally, the applicant's experience in mobile app development is limited, and there is no mention of working under a Scrum Master, which is a requirement specified in the job description.</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -477,7 +477,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>The applicant has demonstrated strong adaptability, problem-solving abilities, and willingness to learn from Japanese work culture. Their proactive participation in workshops and online courses to bolster their skills, seek feedback, and continuous self-improvement showcase strong communication, teamwork, and time management skills. Additionally, the applicant's expressed interest in Japan's work culture and aligning values, along with a desire for mentorship and a smooth transition into the new work environment, indicate a high level of adaptability and positive attitude, earning them a score of 4 for personality and willingness to work in Japan.</t>
+          <t>The applicant has demonstrated excellent communication skills, adaptability, and a strong interest in learning from Japanese work culture. The responses reflect a positive attitude, a willingness to learn and improve, and an ability to overcome challenges. The applicant's keen interest in Japanese values and cultural alignment indicates a high level of adaptability, making them suitable for the company's requirements. Overall, the applicant's personality aligns with the company's soft skill requirements, warranting a score of 4.</t>
         </is>
       </c>
     </row>
@@ -490,7 +490,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>The applicant possesses a strong skill set with experience in Flutter, Dart, Firebase, WebRTC, NodeJS, and ReactJS, which align well with the company's requirements for application development. The candidate has demonstrated expertise in developing various applications including a food delivery app, a multiplayer gaming and video calling web app, and a smart home sensor middleware web application, showcasing a versatile range of technical abilities and problem-solving skills. The applicant's experience in utilizing Firebase aligns with the company's requirement for Firestore, Firebase Authentication, Cloud Storage, and Cloud Messaging, exhibiting a solid understanding of mobile app architecture, design, and best practices. While the applicant could benefit from experience in Android/iOS development, their existing skills indicate a strong potential to contribute effectively to the company's projects.</t>
+          <t>The applicant has a strong background and experience in relevant technologies such as Flutter, Dart, Firebase, WebRTC, NodeJS, ExpressJS, and HTML/CSS/JS. The projects indicate proficiency in developing mobile and web applications, utilizing real-time communication, and smart home device integration. However, the applicant lacks experience with Android/iOS, Firestore, Firebase Authentication, and Cloud Storage/Messaging, which are essential for the specified role in application development. Despite this, the applicant's demonstrated knowledge and experience make them a strong candidate for the position.</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -498,7 +498,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>The applicant has shown a high level of adaptability, a willingness to learn new skills, and a strong desire to contribute to cutting-edge technologies. Their commitment to bridging the gap between technical and creative aspects, ability to work well in a team, and open-mindedness towards adapting to new cultures demonstrates excellent potential for success in a diverse work environment, including in Japan. Overall, the applicant's responses reflect a positive attitude, adaptability, and ambition, warranting a score of 4 out of 5.</t>
+          <t>The applicant exhibits a high level of adaptability, problem-solving skills, and a strong willingness to work in Japan. Their expressed interest in learning a new language and embracing new cultures, combined with their collaborative work style, indicates a positive fit for the company's soft skill requirements.</t>
         </is>
       </c>
     </row>
@@ -511,7 +511,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>The applicant has strong technical skills in Python, PyTorch, Tensorflow, Django Rest Framework, ReactJS, and Computer Vision. However, the applicant lacks experience in mobile application development using Flutter, Dart, Android/iOS, Firestore, Firebase Authentication, and Cloud Storage/Messaging. The applicant's projects demonstrate proficiency in data analysis, web development, and machine learning, but there is a gap in mobile app architecture and design. While the applicant's skills are impressive, there is a specific mismatch with the skills required for the role, particularly in mobile app development and architecture. The candidate's experience and skills are valuable, but more direct experience in mobile app development using the stated technologies would align better with the job description.</t>
+          <t>The applicant has a strong background in computer vision, image processing, backend development, and web development. Although the applicant's projects do not directly align with the specific technologies required by the company, the candidate possesses valuable skills such as Python, PyTorch, Tensorflow, Django Rest Framework, and ReactJS, which demonstrate a proficiency in software development. However, the lack of experience in Flutter, Dart, mobile app architecture, design patterns, Firestore, Firebase Authentication, Cloud Storage, and Cloud Messaging may be a gap in the candidate's skill set for the specific role. The applicant's experience in developing a library management system and backend integration with machine learning models showcases relevant experience in software development, which could be leveraged in the application development role, albeit with some additional training in mobile app development technologies.</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -519,7 +519,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>The applicant has expressed a strong interest in working in Japan and has demonstrated adaptability and openness to learning a new language. The applicant's response indicates a willingness to be part of the work culture in Japan and an eagerness to contribute to cutting-edge technologies. The applicant also acknowledges the need for improvement in certain areas and shows a proactive attitude towards addressing these weaknesses. Overall, the applicant's responses reflect strong communication skills, adaptability, and a positive attitude towards the prospect of working in Japan.</t>
+          <t>Based on the provided answers, the applicant demonstrates strong adaptability, communication, and teamwork skills, which are essential for integrating into a new work culture in Japan. The candidate expresses a deep interest in the work culture and technological advancements in Japan, showcasing a willingness to embrace new experiences. Additionally, the applicant's emphasis on working well in a team and readiness to learn new skills align with the company's soft skill requirements, indicating a strong potential for success in a collaborative work environment. The candidate's willingness to learn a new language and adapt to a new culture further solidifies their openness to the opportunity of working in Japan, thus warranting a score of 4.</t>
         </is>
       </c>
     </row>
@@ -532,7 +532,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>The applicant has worked on projects like 'Video Conferencing Project', 'TEDxIITGuwahati Website', and 'Alcheringa Pass Portal', which showcase strong skills in JavaScript, HTML, and CSS. Although these projects do not directly align with all the required skills for the job position, the applicant's proficiency in API Integration and web development projects demonstrates a solid foundation in software development. However, there is a lack of experience in Flutter, Dart, Android/iOS development, Firestore, Firebase Authentication, Cloud Storage/Messaging, and mobile app architecture/design, which are essential for the role. Therefore, while the applicant's current skills are impressive, there is a gap in the required technical skill set for the job position.</t>
+          <t>The applicant's projects demonstrate strong proficiency in front-end development using JavaScript, HTML, and CSS, and the ability to work on group projects. However, the lack of experience with Flutter, Dart, Android/iOS, Firestore, Firebase Authentication, Cloud Storage/Messaging, and mobile app architecture and design patterns, which are crucial for the job, makes the applicant less suited for the position. The candidate's project experience does not align closely with the specific technologies and skills required by the company, resulting in a moderate score.</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -540,7 +540,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>The applicant has demonstrated strong adaptability, teamwork, and communication skills through the answers provided, expressing willingness to work in Japan and acknowledging the need for cultural adaptation. The applicant's clear career plan and expectations from the company indicate a mature and stable approach, aligning with the company's requirements. Additionally, the applicant's experience in addressing challenges and willingness to improve personal skills reflect a proactive attitude. Overall, the applicant's positive approach and alignment with the company's expectations merit a score of 4 out of 5.</t>
+          <t>The applicant has displayed good communication skills, teamwork, problem-solving ability, and adaptability to new cultures, as evidenced by the responses provided. Their openness to working in Japan, the admiration for Japan's work culture, and the interest in learning a new language demonstrate a strong willingness to work in a different environment, aligning well with the company's soft skill requirements. As such, the applicant's strong interpersonal skills and adaptability warrant a score of 4.</t>
         </is>
       </c>
     </row>

--- a/main/results/jdk_4.xlsx
+++ b/main/results/jdk_4.xlsx
@@ -469,7 +469,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>The applicant has strong skills in Python, Django, ReactJS, and JavaScript, showcasing proficiency in web development and backend technologies. However, there is a lack of experience in specific technologies such as Flutter, Dart, Firestore, Firebase Authentication, and mobile app architecture/design, which are crucial for the job role. Additionally, the applicant's experience in mobile app development is limited, and there is no mention of working under a Scrum Master, which is a requirement specified in the job description.</t>
+          <t>The applicant has a strong background in technology with extensive experience in developing user-friendly applications, utilizing a variety of programming languages and frameworks, such as ReactJS, Django, Python, and JavaScript. The projects the applicant has worked on demonstrate expertise in areas such as bias/toxicity detection in language models, user profile management, library system, and ICU monitor segmentation. Although the applicant lacks direct experience with Flutter, Dart, Firestore, Firebase Authentication, and Cloud Storage/Messaging, their proficiency in related technologies, such as ReactJS, Django, Python, and JavaScript, showcases their adaptability and ability to quickly learn and master new technologies. Additionally, the applicant's experience with PyTorch, Tensorflow, and Computer Vision aligns with the company's need for a strong technical skill set, indicating a potential for successful application of their expertise to the development of a sweat amino acid analysis app.</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -477,7 +477,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>The applicant has demonstrated excellent communication skills, adaptability, and a strong interest in learning from Japanese work culture. The responses reflect a positive attitude, a willingness to learn and improve, and an ability to overcome challenges. The applicant's keen interest in Japanese values and cultural alignment indicates a high level of adaptability, making them suitable for the company's requirements. Overall, the applicant's personality aligns with the company's soft skill requirements, warranting a score of 4.</t>
+          <t>The applicant demonstrates a strong willingness to work in Japan, expressing a genuine interest in learning from Japanese work culture and highlighting a strong connection to values such as hard work, punctuality, and dedication. The applicant's desire for personal development and consistent effort to seek feedback and self-improvement demonstrate an adaptable and open-minded approach, aligning well with the company's soft skill requirements, including adaptability and a proactive attitude towards self-improvement. Moreover, the applicant's deep interest in cultural values and expectations from the company, reflecting a positive and supportive work culture that fosters creativity and collaboration, further underscores their enthusiasm for working in a new environment. These aspects collectively indicate a high level of cultural adaptability and professional commitment, warranting a high score for willingness to work in Japan.</t>
         </is>
       </c>
     </row>
@@ -490,7 +490,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>The applicant has a strong background and experience in relevant technologies such as Flutter, Dart, Firebase, WebRTC, NodeJS, ExpressJS, and HTML/CSS/JS. The projects indicate proficiency in developing mobile and web applications, utilizing real-time communication, and smart home device integration. However, the applicant lacks experience with Android/iOS, Firestore, Firebase Authentication, and Cloud Storage/Messaging, which are essential for the specified role in application development. Despite this, the applicant's demonstrated knowledge and experience make them a strong candidate for the position.</t>
+          <t>The applicant has a strong background in relevant technologies such as Flutter, Dart, Firebase, WebRTC, and NodeJS. The projects the applicant has worked on demonstrate the practical application of these skills in the development of diverse web and mobile applications. Although the applicant lacks experience in Android and iOS development specifically, the demonstrated ability to learn new technologies and the positive impact of the applicant's projects make them a strong candidate for the job.</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -498,7 +498,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>The applicant exhibits a high level of adaptability, problem-solving skills, and a strong willingness to work in Japan. Their expressed interest in learning a new language and embracing new cultures, combined with their collaborative work style, indicates a positive fit for the company's soft skill requirements.</t>
+          <t>The applicant has shown a high level of adaptability, communication skills, and a willingness to work in Japan. Their expressed interest in the AI field aligns with the company's objectives, and their enthusiasm for learning a new language and being part of the work culture demonstrates a strong potential for integration. The applicant's ability to work well in teams and address challenges collaboratively further supports their suitability for the role.Overall, the applicant exhibits the qualities sought by the company and demonstrates a strong willingness to work in Japan.</t>
         </is>
       </c>
     </row>
@@ -511,7 +511,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>The applicant has a strong background in computer vision, image processing, backend development, and web development. Although the applicant's projects do not directly align with the specific technologies required by the company, the candidate possesses valuable skills such as Python, PyTorch, Tensorflow, Django Rest Framework, and ReactJS, which demonstrate a proficiency in software development. However, the lack of experience in Flutter, Dart, mobile app architecture, design patterns, Firestore, Firebase Authentication, Cloud Storage, and Cloud Messaging may be a gap in the candidate's skill set for the specific role. The applicant's experience in developing a library management system and backend integration with machine learning models showcases relevant experience in software development, which could be leveraged in the application development role, albeit with some additional training in mobile app development technologies.</t>
+          <t>The applicant has worked on projects related to computer vision, image processing, and backend development using machine learning models, which demonstrates technical expertise in relevant areas. However, the applicant lacks specific skills such as Flutter, Dart, Android/iOS, Firestore, Firebase Authentication, and Cloud Storage/Messaging as required by the company. While the projects showcase strong technical abilities, the absence of key skills may limit the applicant's suitability for the job position.</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -519,7 +519,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Based on the provided answers, the applicant demonstrates strong adaptability, communication, and teamwork skills, which are essential for integrating into a new work culture in Japan. The candidate expresses a deep interest in the work culture and technological advancements in Japan, showcasing a willingness to embrace new experiences. Additionally, the applicant's emphasis on working well in a team and readiness to learn new skills align with the company's soft skill requirements, indicating a strong potential for success in a collaborative work environment. The candidate's willingness to learn a new language and adapt to a new culture further solidifies their openness to the opportunity of working in Japan, thus warranting a score of 4.</t>
+          <t>The applicant has shown strong communication skills and has expressed a willingness to adapt to new cultures, which aligns with the company's soft skill requirements. Moreover, the applicant's collaborative problem-solving approach and ability to work well in a team demonstrate good teamwork and problem-solving skills. The applicant's interest in learning new skills and contributing to cutting-edge technologies further indicates a proactive attitude suitable for the company. Overall, the applicant's responses exhibit positive soft skills, thereby warranting a score of 4.</t>
         </is>
       </c>
     </row>
@@ -532,7 +532,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>The applicant's projects demonstrate strong proficiency in front-end development using JavaScript, HTML, and CSS, and the ability to work on group projects. However, the lack of experience with Flutter, Dart, Android/iOS, Firestore, Firebase Authentication, Cloud Storage/Messaging, and mobile app architecture and design patterns, which are crucial for the job, makes the applicant less suited for the position. The candidate's project experience does not align closely with the specific technologies and skills required by the company, resulting in a moderate score.</t>
+          <t>The applicant has experience in developing web applications using JavaScript, HTML, and CSS. While the job requires expertise in Flutter, Dart, Android/iOS, Firestore, Firebase Authentication, and Cloud Storage/Messaging, the applicant's skills are more inclined towards web development rather than mobile application development. Additionally, the applicant lacks the experience in mobile app architecture/design and version control systems like Git, which are crucial for the given job role. The projects the applicant has worked on do not directly align with the required skill set for the job. However, the applicant has demonstrated proficiency in API integration, which can be a valuable skill for the company.</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -540,7 +540,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>The applicant has displayed good communication skills, teamwork, problem-solving ability, and adaptability to new cultures, as evidenced by the responses provided. Their openness to working in Japan, the admiration for Japan's work culture, and the interest in learning a new language demonstrate a strong willingness to work in a different environment, aligning well with the company's soft skill requirements. As such, the applicant's strong interpersonal skills and adaptability warrant a score of 4.</t>
+          <t>The applicant has expressed a strong interest in working in Japan and has shown willingness to adapt to a new culture. They have clearly articulated their career aspirations and expectations from the company, exhibiting a mature outlook. The applicant has highlighted their strengths in teamwork and problem-solving, aligning with the soft skills sought by the company. They have also acknowledged their areas for improvement and have shown a proactive approach towards addressing them. Overall, the applicant's responses indicate a positive attitude, adaptability, and a strong willingness to work in Japan.</t>
         </is>
       </c>
     </row>
